--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D2" t="n">
-        <v>164200</v>
+        <v>313400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="D3" t="n">
-        <v>4353500</v>
+        <v>14692300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>306</v>
+        <v>933</v>
       </c>
       <c r="D4" t="n">
-        <v>104700</v>
+        <v>714700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>644</v>
+        <v>710</v>
       </c>
       <c r="D5" t="n">
-        <v>226400</v>
+        <v>100600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>205</v>
+        <v>388</v>
       </c>
       <c r="D6" t="n">
-        <v>140500</v>
+        <v>119600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>340.1000061035156</v>
+        <v>304</v>
       </c>
       <c r="D7" t="n">
-        <v>1906300</v>
+        <v>143200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>963</v>
+        <v>631</v>
       </c>
       <c r="D8" t="n">
-        <v>109700</v>
+        <v>290100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>5216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>665</v>
+        <v>203</v>
       </c>
       <c r="D9" t="n">
-        <v>108300</v>
+        <v>276400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="D10" t="n">
-        <v>140200</v>
+        <v>127800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9854</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,131 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="D11" t="n">
-        <v>832400</v>
+        <v>151600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3732400</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>146600</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>663</v>
+      </c>
+      <c r="D14" t="n">
+        <v>139600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>511</v>
+      </c>
+      <c r="D15" t="n">
+        <v>947400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>216</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2130800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D2" t="n">
-        <v>313400</v>
+        <v>595300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D3" t="n">
-        <v>14692300</v>
+        <v>17130600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>933</v>
+        <v>925.4000244140625</v>
       </c>
       <c r="D4" t="n">
-        <v>714700</v>
+        <v>1057700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>710</v>
+        <v>231</v>
       </c>
       <c r="D5" t="n">
-        <v>100600</v>
+        <v>117000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="D6" t="n">
-        <v>119600</v>
+        <v>527100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D7" t="n">
-        <v>143200</v>
+        <v>112900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="D8" t="n">
-        <v>290100</v>
+        <v>136200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="D9" t="n">
-        <v>276400</v>
+        <v>142800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>431</v>
+        <v>302</v>
       </c>
       <c r="D10" t="n">
-        <v>127800</v>
+        <v>173200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>326</v>
+        <v>633</v>
       </c>
       <c r="D11" t="n">
-        <v>151600</v>
+        <v>327500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>5216</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>339.6000061035156</v>
+        <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>3732400</v>
+        <v>397700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>962</v>
+        <v>428</v>
       </c>
       <c r="D13" t="n">
-        <v>146600</v>
+        <v>215300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>663</v>
+        <v>327</v>
       </c>
       <c r="D14" t="n">
-        <v>139600</v>
+        <v>232200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>511</v>
+        <v>338.7000122070312</v>
       </c>
       <c r="D15" t="n">
-        <v>947400</v>
+        <v>5175000</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9854</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,131 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>958</v>
       </c>
       <c r="D16" t="n">
-        <v>2130800</v>
+        <v>197800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>662</v>
+      </c>
+      <c r="D17" t="n">
+        <v>154100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>491</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1955200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8105</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>920</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21254500</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>708</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2034600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>198</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3260000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D2" t="n">
-        <v>595300</v>
+        <v>764100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="D3" t="n">
-        <v>17130600</v>
+        <v>278100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>925.4000244140625</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>1057700</v>
+        <v>20189500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>925.0999755859375</v>
       </c>
       <c r="D5" t="n">
-        <v>117000</v>
+        <v>2254700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>330</v>
+        <v>544</v>
       </c>
       <c r="D6" t="n">
-        <v>527100</v>
+        <v>117300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="D7" t="n">
-        <v>112900</v>
+        <v>132500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>704</v>
+        <v>988</v>
       </c>
       <c r="D8" t="n">
-        <v>136200</v>
+        <v>1419200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="D9" t="n">
-        <v>142800</v>
+        <v>748700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D10" t="n">
-        <v>173200</v>
+        <v>118700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="D11" t="n">
-        <v>327500</v>
+        <v>257600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="D12" t="n">
-        <v>397700</v>
+        <v>195600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="D13" t="n">
-        <v>215300</v>
+        <v>220900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D14" t="n">
-        <v>232200</v>
+        <v>111600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>338.7000122070312</v>
+        <v>642</v>
       </c>
       <c r="D15" t="n">
-        <v>5175000</v>
+        <v>386200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>5216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>958</v>
+        <v>200</v>
       </c>
       <c r="D16" t="n">
-        <v>197800</v>
+        <v>545200</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>662</v>
+        <v>428</v>
       </c>
       <c r="D17" t="n">
-        <v>154100</v>
+        <v>301700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="D18" t="n">
-        <v>1955200</v>
+        <v>336000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8105</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>920</v>
+        <v>338.7000122070312</v>
       </c>
       <c r="D19" t="n">
-        <v>21254500</v>
+        <v>8255600</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>708</v>
+        <v>961</v>
       </c>
       <c r="D20" t="n">
-        <v>2034600</v>
+        <v>262400</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>9854</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,16 +919,154 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>198</v>
+        <v>662</v>
       </c>
       <c r="D21" t="n">
-        <v>3260000</v>
+        <v>218300</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>7512</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>927</v>
+      </c>
+      <c r="D22" t="n">
+        <v>108300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>505</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2232900</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>706</v>
+      </c>
+      <c r="D24" t="n">
+        <v>160900</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>8105</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>920</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23047500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>708</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2076300</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>207</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3717000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,19 +473,19 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>166A</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="D2" t="n">
-        <v>764100</v>
+        <v>283200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,19 +496,19 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>5994</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>482</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>278100</v>
+        <v>106400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,19 +519,19 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>7277</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="D4" t="n">
-        <v>20189500</v>
+        <v>192800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,522 +551,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>925.0999755859375</v>
+        <v>708</v>
       </c>
       <c r="D5" t="n">
-        <v>2254700</v>
+        <v>2076300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>3232</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>544</v>
-      </c>
-      <c r="D6" t="n">
-        <v>117300</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>3753</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>232</v>
-      </c>
-      <c r="D7" t="n">
-        <v>132500</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>3803</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>988</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1419200</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>3909</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>345</v>
-      </c>
-      <c r="D9" t="n">
-        <v>748700</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>4265</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>307</v>
-      </c>
-      <c r="D10" t="n">
-        <v>118700</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>703</v>
-      </c>
-      <c r="D11" t="n">
-        <v>257600</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>380</v>
-      </c>
-      <c r="D12" t="n">
-        <v>195600</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>4392</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>302</v>
-      </c>
-      <c r="D13" t="n">
-        <v>220900</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>315</v>
-      </c>
-      <c r="D14" t="n">
-        <v>111600</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>4750</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>642</v>
-      </c>
-      <c r="D15" t="n">
-        <v>386200</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>5216</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" t="n">
-        <v>545200</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>5258</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>428</v>
-      </c>
-      <c r="D17" t="n">
-        <v>301700</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>5269</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>325</v>
-      </c>
-      <c r="D18" t="n">
-        <v>336000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>6472</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>338.7000122070312</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8255600</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>7280</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>961</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262400</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>7412</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>662</v>
-      </c>
-      <c r="D21" t="n">
-        <v>218300</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>7512</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>927</v>
-      </c>
-      <c r="D22" t="n">
-        <v>108300</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>7776</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>505</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2232900</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>8032</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>706</v>
-      </c>
-      <c r="D24" t="n">
-        <v>160900</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>8105</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>920</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23047500</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>9425</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>708</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2076300</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>9854</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>207</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3717000</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>676</v>
+        <v>508</v>
       </c>
       <c r="D2" t="n">
-        <v>283200</v>
+        <v>102200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>106400</v>
+        <v>423300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="D4" t="n">
-        <v>192800</v>
+        <v>631800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,25 +542,71 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>708</v>
+        <v>614</v>
       </c>
       <c r="D5" t="n">
-        <v>2076300</v>
+        <v>113100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>309700</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2076300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/03/parabolic.xlsx
+++ b/parabolic/2025/09/03/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D2" t="n">
-        <v>102200</v>
+        <v>124800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>298</v>
       </c>
       <c r="D3" t="n">
-        <v>423300</v>
+        <v>1025100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>462</v>
+        <v>823</v>
       </c>
       <c r="D4" t="n">
-        <v>631800</v>
+        <v>258300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6184</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>614</v>
+        <v>712</v>
       </c>
       <c r="D5" t="n">
-        <v>113100</v>
+        <v>614200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="D6" t="n">
-        <v>309700</v>
+        <v>962200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,25 +588,117 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>708</v>
+        <v>222</v>
       </c>
       <c r="D7" t="n">
-        <v>2076300</v>
+        <v>1715300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>6184</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>613</v>
+      </c>
+      <c r="D8" t="n">
+        <v>149800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>379400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>179500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>708</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2076300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
